--- a/AutoLoader/Contents/Support/SecurityPlaneConfig/上海地区住宅-安防配置表.xlsx
+++ b/AutoLoader/Contents/Support/SecurityPlaneConfig/上海地区住宅-安防配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="视频监控系统配置表" sheetId="1" r:id="rId1"/>
@@ -735,10 +735,6 @@
     <t>无障碍落客区</t>
   </si>
   <si>
-    <t>门厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安防监控中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,10 +835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水处理机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燃气机房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,250 +1733,259 @@
     <t>中庭</t>
   </si>
   <si>
+    <t>检修走道</t>
+  </si>
+  <si>
+    <t>防毒通道和密闭通道，密闭通道</t>
+  </si>
+  <si>
+    <t>客梯厅</t>
+  </si>
+  <si>
+    <t>货梯厅</t>
+  </si>
+  <si>
+    <t>电梯厅</t>
+  </si>
+  <si>
+    <t>公共走廊</t>
+  </si>
+  <si>
+    <t>公共走道</t>
+  </si>
+  <si>
+    <t>后勤走道</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
+    <t>楼层走道间，室内回廊，室内走道，*走廊</t>
+  </si>
+  <si>
+    <t>共用前室，*合用前室*</t>
+  </si>
+  <si>
+    <t>合用前室</t>
+  </si>
+  <si>
+    <t>*电梯前室*</t>
+  </si>
+  <si>
+    <t>电梯前室</t>
+  </si>
+  <si>
+    <t>消防前室，*消防电梯前室*</t>
+  </si>
+  <si>
+    <t>消防电梯前室</t>
+  </si>
+  <si>
+    <t>防烟楼梯间前室，*防烟前室*</t>
+  </si>
+  <si>
+    <t>防烟前室</t>
+  </si>
+  <si>
+    <t>扩大合用前室，*扩大前室*</t>
+  </si>
+  <si>
+    <t>扩大前室</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
+  </si>
+  <si>
+    <t>楼梯间前室，封闭前室，*前室*</t>
+  </si>
+  <si>
+    <t>前室</t>
+  </si>
+  <si>
+    <t>人防楼梯间</t>
+  </si>
+  <si>
+    <t>地上防烟楼梯间，地下防烟楼梯间</t>
+  </si>
+  <si>
+    <t>防烟楼梯间</t>
+  </si>
+  <si>
+    <t>地上封闭楼梯间，地下封闭楼梯间</t>
+  </si>
+  <si>
+    <t>封闭楼梯间</t>
+  </si>
+  <si>
+    <t>开敞楼梯间</t>
+  </si>
+  <si>
+    <t>*LT*，BT*，BLT*，疏散楼梯间，*楼梯间</t>
+  </si>
+  <si>
+    <t>楼梯间</t>
+  </si>
+  <si>
+    <t>公共场所</t>
+  </si>
+  <si>
+    <t>私有区域；非火灾探测区域</t>
+  </si>
+  <si>
+    <t>*阳台</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>*天井</t>
+  </si>
+  <si>
+    <t>天井</t>
+  </si>
+  <si>
+    <t>门斗</t>
+  </si>
+  <si>
+    <t>不上人屋面</t>
+  </si>
+  <si>
+    <t>上人屋面</t>
+  </si>
+  <si>
+    <t>屋面，裙房屋面，塔楼屋面，*屋面</t>
+  </si>
+  <si>
+    <t>屋顶</t>
+  </si>
+  <si>
+    <t>*下沉广场，*下沉庭院</t>
+  </si>
+  <si>
+    <t>下沉广场</t>
+  </si>
+  <si>
+    <t>台阶</t>
+  </si>
+  <si>
+    <t>室外台阶</t>
+  </si>
+  <si>
+    <t>花池</t>
+  </si>
+  <si>
+    <t>花坛</t>
+  </si>
+  <si>
+    <t>水景</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>绿化</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域；疏散指示</t>
+  </si>
+  <si>
+    <t>*室外楼梯</t>
+  </si>
+  <si>
+    <t>室外楼梯</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示</t>
+  </si>
+  <si>
+    <t>*天桥</t>
+  </si>
+  <si>
+    <t>天桥</t>
+  </si>
+  <si>
+    <t>*停机坪</t>
+  </si>
+  <si>
+    <t>直升飞机停机坪</t>
+  </si>
+  <si>
+    <t>室外机平台</t>
+  </si>
+  <si>
+    <t>设备平台</t>
+  </si>
+  <si>
+    <t>不上人平台</t>
+  </si>
+  <si>
+    <t>上人平台</t>
+  </si>
+  <si>
+    <t>室外平台</t>
+  </si>
+  <si>
+    <t>室外走道</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示；疏散照明</t>
+  </si>
+  <si>
+    <t>*外廊，*连廊</t>
+  </si>
+  <si>
+    <t>室外连廊</t>
+  </si>
+  <si>
+    <t>外廊</t>
+  </si>
+  <si>
+    <t>室外</t>
+  </si>
+  <si>
+    <t>室外区域</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>暖通房间功能标签</t>
+  </si>
+  <si>
+    <t>疏散照明设置判据</t>
+  </si>
+  <si>
+    <t>LPD</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>同义词（逗号分隔）</t>
+  </si>
+  <si>
+    <t>四级</t>
+  </si>
+  <si>
+    <t>三级</t>
+  </si>
+  <si>
+    <t>二级</t>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
     <t>*大堂，*门厅</t>
-  </si>
-  <si>
-    <t>检修走道</t>
-  </si>
-  <si>
-    <t>防毒通道和密闭通道，密闭通道</t>
-  </si>
-  <si>
-    <t>客梯厅</t>
-  </si>
-  <si>
-    <t>货梯厅</t>
-  </si>
-  <si>
-    <t>电梯厅</t>
-  </si>
-  <si>
-    <t>公共走廊</t>
-  </si>
-  <si>
-    <t>公共走道</t>
-  </si>
-  <si>
-    <t>后勤走道</t>
-  </si>
-  <si>
-    <t>走道</t>
-  </si>
-  <si>
-    <t>楼层走道间，室内回廊，室内走道，*走廊</t>
-  </si>
-  <si>
-    <t>共用前室，*合用前室*</t>
-  </si>
-  <si>
-    <t>合用前室</t>
-  </si>
-  <si>
-    <t>*电梯前室*</t>
-  </si>
-  <si>
-    <t>电梯前室</t>
-  </si>
-  <si>
-    <t>消防前室，*消防电梯前室*</t>
-  </si>
-  <si>
-    <t>消防电梯前室</t>
-  </si>
-  <si>
-    <t>防烟楼梯间前室，*防烟前室*</t>
-  </si>
-  <si>
-    <t>防烟前室</t>
-  </si>
-  <si>
-    <t>扩大合用前室，*扩大前室*</t>
-  </si>
-  <si>
-    <t>扩大前室</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
-  </si>
-  <si>
-    <t>楼梯间前室，封闭前室，*前室*</t>
-  </si>
-  <si>
-    <t>前室</t>
-  </si>
-  <si>
-    <t>人防楼梯间</t>
-  </si>
-  <si>
-    <t>地上防烟楼梯间，地下防烟楼梯间</t>
-  </si>
-  <si>
-    <t>防烟楼梯间</t>
-  </si>
-  <si>
-    <t>地上封闭楼梯间，地下封闭楼梯间</t>
-  </si>
-  <si>
-    <t>封闭楼梯间</t>
-  </si>
-  <si>
-    <t>开敞楼梯间</t>
-  </si>
-  <si>
-    <t>*LT*，BT*，BLT*，疏散楼梯间，*楼梯间</t>
-  </si>
-  <si>
-    <t>楼梯间</t>
-  </si>
-  <si>
-    <t>公共场所</t>
-  </si>
-  <si>
-    <t>私有区域；非火灾探测区域</t>
-  </si>
-  <si>
-    <t>*阳台</t>
-  </si>
-  <si>
-    <t>阳台</t>
-  </si>
-  <si>
-    <t>*天井</t>
-  </si>
-  <si>
-    <t>天井</t>
-  </si>
-  <si>
-    <t>门斗</t>
-  </si>
-  <si>
-    <t>不上人屋面</t>
-  </si>
-  <si>
-    <t>上人屋面</t>
-  </si>
-  <si>
-    <t>屋面，裙房屋面，塔楼屋面，*屋面</t>
-  </si>
-  <si>
-    <t>屋顶</t>
-  </si>
-  <si>
-    <t>*下沉广场，*下沉庭院</t>
-  </si>
-  <si>
-    <t>下沉广场</t>
-  </si>
-  <si>
-    <t>台阶</t>
-  </si>
-  <si>
-    <t>室外台阶</t>
-  </si>
-  <si>
-    <t>花池</t>
-  </si>
-  <si>
-    <t>花坛</t>
-  </si>
-  <si>
-    <t>水景</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>绿化</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域；疏散指示</t>
-  </si>
-  <si>
-    <t>*室外楼梯</t>
-  </si>
-  <si>
-    <t>室外楼梯</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示</t>
-  </si>
-  <si>
-    <t>*天桥</t>
-  </si>
-  <si>
-    <t>天桥</t>
-  </si>
-  <si>
-    <t>*停机坪</t>
-  </si>
-  <si>
-    <t>直升飞机停机坪</t>
-  </si>
-  <si>
-    <t>室外机平台</t>
-  </si>
-  <si>
-    <t>设备平台</t>
-  </si>
-  <si>
-    <t>不上人平台</t>
-  </si>
-  <si>
-    <t>上人平台</t>
-  </si>
-  <si>
-    <t>室外平台</t>
-  </si>
-  <si>
-    <t>室外走道</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示；疏散照明</t>
-  </si>
-  <si>
-    <t>*外廊，*连廊</t>
-  </si>
-  <si>
-    <t>室外连廊</t>
-  </si>
-  <si>
-    <t>外廊</t>
-  </si>
-  <si>
-    <t>室外</t>
-  </si>
-  <si>
-    <t>室外区域</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>暖通房间功能标签</t>
-  </si>
-  <si>
-    <t>疏散照明设置判据</t>
-  </si>
-  <si>
-    <t>LPD</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>同义词（逗号分隔）</t>
-  </si>
-  <si>
-    <t>四级</t>
-  </si>
-  <si>
-    <t>三级</t>
-  </si>
-  <si>
-    <t>二级</t>
-  </si>
-  <si>
-    <t>一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水处理房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2010,6 +2011,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2382,7 +2384,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2633,7 +2635,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>620</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -2769,7 +2771,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
@@ -2786,7 +2788,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
@@ -2807,7 +2809,7 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>配置模式!$A$2:$A$14</xm:f>
@@ -2831,7 +2833,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2861,7 +2863,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -2878,7 +2880,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2895,7 +2897,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -2929,7 +2931,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2963,7 +2965,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>621</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2997,7 +2999,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3014,7 +3016,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3031,7 +3033,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3048,7 +3050,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -3065,7 +3067,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -3082,7 +3084,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -3091,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -3099,7 +3101,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -3108,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -3143,7 +3145,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3211,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3226,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3376,7 +3378,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -3413,7 +3415,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>配置模式!$C$2:$C$5</xm:f>
@@ -3430,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3443,16 +3445,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,7 +3468,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,7 +3482,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,7 +3496,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,12 +3510,12 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3522,7 +3524,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3533,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>64</v>
@@ -3541,13 +3543,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>64</v>
@@ -3555,13 +3557,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>64</v>
@@ -3575,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>64</v>
@@ -3589,7 +3591,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
@@ -3597,13 +3599,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>64</v>
@@ -3617,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>64</v>
@@ -3631,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>64</v>
@@ -3645,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>64</v>
@@ -3653,13 +3655,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>64</v>
@@ -3673,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>64</v>
@@ -3714,7 +3716,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3725,7 +3727,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -3736,7 +3738,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3747,7 +3749,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -3766,15 +3768,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3782,7 +3784,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,9 +3823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3841,75 +3843,75 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3917,358 +3919,358 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D7" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D33" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D34" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D35" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D36" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D38" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D41" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D42" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
@@ -4276,7 +4278,7 @@
         <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
@@ -4284,7 +4286,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
@@ -4292,242 +4294,242 @@
         <v>67</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C49" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F49" s="6"/>
       <c r="I49" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D50" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D51" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D52" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D53" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C55" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D56" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D57" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D58" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D59" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D60" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D61" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D62" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D63" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D64" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D65" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D66" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D67" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
@@ -4535,10 +4537,10 @@
         <v>68</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
@@ -4546,10 +4548,10 @@
         <v>69</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
@@ -4560,57 +4562,57 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D71" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D72" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D73" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D74" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D75" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
@@ -4618,41 +4620,41 @@
         <v>71</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D77" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D78" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D79" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
@@ -4660,11 +4662,11 @@
         <v>72</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F80" s="6"/>
       <c r="I80" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
@@ -4675,10 +4677,10 @@
         <v>74</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
@@ -4686,10 +4688,10 @@
         <v>75</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
@@ -4700,10 +4702,10 @@
         <v>77</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
@@ -4711,10 +4713,10 @@
         <v>78</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
@@ -4722,10 +4724,10 @@
         <v>79</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
@@ -4733,10 +4735,10 @@
         <v>80</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
@@ -4744,10 +4746,10 @@
         <v>81</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
@@ -4758,24 +4760,24 @@
         <v>83</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
@@ -4783,10 +4785,10 @@
         <v>84</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>84</v>
@@ -4794,10 +4796,10 @@
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D91" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>84</v>
@@ -4808,7 +4810,7 @@
         <v>85</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
@@ -4816,7 +4818,7 @@
         <v>86</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
@@ -4824,7 +4826,7 @@
         <v>87</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
@@ -4832,7 +4834,7 @@
         <v>88</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
@@ -4840,7 +4842,7 @@
         <v>89</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
@@ -4848,7 +4850,7 @@
         <v>90</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
@@ -4856,7 +4858,7 @@
         <v>91</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
@@ -4867,10 +4869,10 @@
         <v>93</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
@@ -4881,10 +4883,10 @@
         <v>95</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
@@ -4892,7 +4894,7 @@
         <v>96</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
@@ -4900,66 +4902,66 @@
         <v>97</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D103" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D104" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C105" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D106" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D107" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D108" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D109" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
@@ -4973,7 +4975,7 @@
         <v>99</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
@@ -4981,7 +4983,7 @@
         <v>100</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
@@ -4989,7 +4991,7 @@
         <v>101</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
@@ -5003,7 +5005,7 @@
         <v>103</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
@@ -5011,7 +5013,7 @@
         <v>104</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
@@ -5025,10 +5027,10 @@
         <v>106</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
@@ -5036,24 +5038,24 @@
         <v>107</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="57" x14ac:dyDescent="0.2">
       <c r="D120" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
@@ -5061,10 +5063,10 @@
         <v>108</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
@@ -5075,24 +5077,24 @@
         <v>110</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="57" x14ac:dyDescent="0.2">
       <c r="C123" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
@@ -5100,24 +5102,24 @@
         <v>111</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
@@ -5125,72 +5127,72 @@
         <v>112</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D127" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D128" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C131" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5198,10 +5200,10 @@
         <v>113</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5209,13 +5211,13 @@
         <v>114</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5223,13 +5225,13 @@
         <v>115</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5237,13 +5239,13 @@
         <v>116</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5251,10 +5253,10 @@
         <v>117</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5262,24 +5264,24 @@
         <v>118</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D138" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="F138" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -5287,13 +5289,13 @@
         <v>119</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5301,10 +5303,10 @@
         <v>120</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5312,24 +5314,24 @@
         <v>121</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5337,13 +5339,13 @@
         <v>122</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5351,13 +5353,13 @@
         <v>123</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
@@ -5368,10 +5370,10 @@
         <v>125</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -5379,13 +5381,13 @@
         <v>126</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
@@ -5393,10 +5395,10 @@
         <v>127</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
@@ -5404,13 +5406,13 @@
         <v>128</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
@@ -5418,7 +5420,7 @@
         <v>129</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
@@ -5426,7 +5428,7 @@
         <v>130</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
@@ -5434,7 +5436,7 @@
         <v>131</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
@@ -5442,10 +5444,10 @@
         <v>132</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>132</v>
@@ -5456,7 +5458,7 @@
         <v>133</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5464,13 +5466,13 @@
         <v>134</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
@@ -5478,13 +5480,13 @@
         <v>135</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
@@ -5492,13 +5494,13 @@
         <v>136</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
@@ -5506,32 +5508,32 @@
         <v>137</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D158" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D159" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
@@ -5539,10 +5541,10 @@
         <v>138</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
@@ -5550,10 +5552,10 @@
         <v>139</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
@@ -5561,10 +5563,10 @@
         <v>140</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
@@ -5572,10 +5574,10 @@
         <v>141</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
@@ -5583,61 +5585,61 @@
         <v>142</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C165" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C166" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C167" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C168" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F168" s="6"/>
       <c r="I168" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
@@ -5645,7 +5647,7 @@
         <v>143</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
@@ -5653,7 +5655,7 @@
         <v>144</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
@@ -5661,7 +5663,7 @@
         <v>145</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
@@ -5669,7 +5671,7 @@
         <v>146</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
@@ -5677,7 +5679,7 @@
         <v>147</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
@@ -5685,7 +5687,7 @@
         <v>148</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
@@ -5693,7 +5695,7 @@
         <v>149</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
@@ -5701,7 +5703,7 @@
         <v>150</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
@@ -5709,7 +5711,7 @@
         <v>151</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
@@ -5717,7 +5719,7 @@
         <v>152</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
@@ -5725,7 +5727,7 @@
         <v>153</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
@@ -5733,7 +5735,7 @@
         <v>154</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
@@ -5741,12 +5743,12 @@
         <v>155</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C182" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F182" s="6"/>
     </row>
@@ -5755,7 +5757,7 @@
         <v>156</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
@@ -5763,7 +5765,7 @@
         <v>157</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
@@ -5771,10 +5773,10 @@
         <v>158</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
@@ -5782,13 +5784,13 @@
         <v>159</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
@@ -5796,10 +5798,10 @@
         <v>160</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
@@ -5807,10 +5809,10 @@
         <v>161</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
@@ -5818,10 +5820,10 @@
         <v>162</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
@@ -5829,10 +5831,10 @@
         <v>163</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
@@ -5840,7 +5842,7 @@
         <v>164</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.2">
@@ -5848,10 +5850,10 @@
         <v>165</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.2">
@@ -5859,10 +5861,10 @@
         <v>166</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.2">
@@ -5870,7 +5872,7 @@
         <v>167</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.2">
@@ -5878,13 +5880,13 @@
         <v>168</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
@@ -5892,7 +5894,7 @@
         <v>169</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.2">
@@ -5900,10 +5902,10 @@
         <v>170</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
@@ -5911,54 +5913,54 @@
         <v>171</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C199" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D200" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D201" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D202" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.2">
@@ -5966,18 +5968,18 @@
         <v>172</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C204" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F204" s="6"/>
     </row>
@@ -5986,10 +5988,10 @@
         <v>173</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.2">
@@ -5997,13 +5999,13 @@
         <v>174</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.2">
@@ -6011,7 +6013,7 @@
         <v>175</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.2">
@@ -6019,7 +6021,7 @@
         <v>176</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.2">
@@ -6030,7 +6032,7 @@
         <v>178</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
@@ -6041,7 +6043,7 @@
         <v>180</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
@@ -6052,18 +6054,18 @@
         <v>182</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
@@ -6071,37 +6073,37 @@
         <v>183</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C214" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F214" s="6"/>
       <c r="I214" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C215" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F215" s="6"/>
       <c r="I215" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
@@ -6109,7 +6111,7 @@
         <v>184</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
@@ -6117,10 +6119,10 @@
         <v>185</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.2">
@@ -6128,10 +6130,10 @@
         <v>186</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.2">
@@ -6142,7 +6144,7 @@
         <v>188</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.2">
@@ -6153,7 +6155,7 @@
         <v>190</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
@@ -6161,10 +6163,10 @@
         <v>191</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
@@ -6172,148 +6174,148 @@
         <v>192</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D223" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D224" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F225" s="6"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C227" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C228" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B229" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C230" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C231" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C233" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C234" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C235" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6330,7 +6332,7 @@
         <v>195</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,7 +6340,7 @@
         <v>196</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -6349,10 +6351,10 @@
         <v>198</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,10 +6362,10 @@
         <v>199</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
@@ -6371,7 +6373,7 @@
         <v>200</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.2">
@@ -6379,7 +6381,7 @@
         <v>201</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
@@ -6387,7 +6389,7 @@
         <v>202</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
@@ -6395,15 +6397,15 @@
         <v>203</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.2">
@@ -6411,18 +6413,18 @@
         <v>204</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D247" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
@@ -6430,7 +6432,7 @@
         <v>205</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
@@ -6438,7 +6440,7 @@
         <v>206</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.2">
@@ -6449,7 +6451,7 @@
         <v>208</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
@@ -6457,18 +6459,18 @@
         <v>215</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C252" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
@@ -6476,7 +6478,7 @@
         <v>209</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
@@ -6484,7 +6486,7 @@
         <v>210</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
@@ -6492,7 +6494,7 @@
         <v>211</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
@@ -6500,10 +6502,10 @@
         <v>212</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6511,7 +6513,7 @@
         <v>213</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -6519,188 +6521,188 @@
         <v>214</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C261" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C262" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C263" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C264" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C265" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C266" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C267" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C270" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H270" s="4">
         <v>400</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C271" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H271" s="4">
         <v>400</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C272" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H272" s="4">
         <v>400</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C273" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H273" s="4">
         <v>400</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C274" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H274" s="4">
         <v>400</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C275" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H275" s="4">
         <v>400</v>
@@ -6708,464 +6710,464 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C276" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H276" s="4">
         <v>400</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H278" s="4">
         <v>400</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C279" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H279" s="4">
         <v>400</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F280" s="6"/>
       <c r="I280" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C281" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F281" s="6"/>
       <c r="I281" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B282" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B283" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B284" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B285" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F285" s="6"/>
       <c r="I285" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E286" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E286" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="F286" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B288" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H288" s="4">
         <v>200</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C289" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H289" s="4">
         <v>200</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C290" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H290" s="4">
         <v>200</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B291" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H291" s="4">
         <v>200</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B292" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H292" s="4">
         <v>200</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B293" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H293" s="4">
         <v>200</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F294" s="6"/>
       <c r="I294" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B295" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F295" s="6"/>
       <c r="I295" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B296" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F296" s="6"/>
       <c r="I296" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B297" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F297" s="6"/>
       <c r="I297" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B298" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F298" s="6"/>
       <c r="I298" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B299" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F299" s="6"/>
       <c r="I299" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B300" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F300" s="6"/>
       <c r="I300" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F301" s="6"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C303" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C304" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C305" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F305" s="6"/>
       <c r="I305" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C306" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C307" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F307" s="6"/>
       <c r="I307" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C309" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C310" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C311" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C312" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F313" s="6"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B314" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F314" s="6"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C315" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C316" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C317" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/AutoLoader/Contents/Support/SecurityPlaneConfig/上海地区住宅-安防配置表.xlsx
+++ b/AutoLoader/Contents/Support/SecurityPlaneConfig/上海地区住宅-安防配置表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="622">
   <si>
     <t>楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,19 +140,1835 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非机动车库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非机动车坡道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯井道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯井道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵报警-残卫报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-枪式摄像机（翻转）</t>
+  </si>
+  <si>
+    <t>入口控制-枪式摄像机（翻转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大屋面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿线均布-枪式摄像机</t>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配电间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动车库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非机动车库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业通道</t>
+  </si>
+  <si>
+    <t>施工通道</t>
+  </si>
+  <si>
+    <t>防毒通道</t>
+  </si>
+  <si>
+    <t>采光井</t>
+  </si>
+  <si>
+    <t>窗井</t>
+  </si>
+  <si>
+    <t>管道井</t>
+  </si>
+  <si>
+    <t>风井</t>
+  </si>
+  <si>
+    <t>存储房间</t>
+  </si>
+  <si>
+    <t>库房</t>
+  </si>
+  <si>
+    <t>仓库，仓库类似场所</t>
+  </si>
+  <si>
+    <t>备品库</t>
+  </si>
+  <si>
+    <t>原料库房</t>
+  </si>
+  <si>
+    <t>原料库房室</t>
+  </si>
+  <si>
+    <t>空瓶存放区</t>
+  </si>
+  <si>
+    <t>冷藏库房</t>
+  </si>
+  <si>
+    <t>油库</t>
+  </si>
+  <si>
+    <t>地下油库</t>
+  </si>
+  <si>
+    <t>储油间</t>
+  </si>
+  <si>
+    <t>燃油间，油箱间，贮油间</t>
+  </si>
+  <si>
+    <t>气瓶间</t>
+  </si>
+  <si>
+    <t>图书库</t>
+  </si>
+  <si>
+    <t>资料库</t>
+  </si>
+  <si>
+    <t>档案库</t>
+  </si>
+  <si>
+    <t>文物库</t>
+  </si>
+  <si>
+    <t>干煤棚</t>
+  </si>
+  <si>
+    <t>碎煤转运间</t>
+  </si>
+  <si>
+    <t>油泵间</t>
+  </si>
+  <si>
+    <t>物资储备库</t>
+  </si>
+  <si>
+    <t>物资库，物资储库</t>
+  </si>
+  <si>
+    <t>食品库房</t>
+  </si>
+  <si>
+    <t>主副食库房</t>
+  </si>
+  <si>
+    <t>食品站</t>
+  </si>
+  <si>
+    <t>水箱间</t>
+  </si>
+  <si>
+    <t>实验室</t>
+  </si>
+  <si>
+    <t>室内土工试验室</t>
+  </si>
+  <si>
+    <t>化学试验室</t>
+  </si>
+  <si>
+    <t>化验室</t>
+  </si>
+  <si>
+    <t>工作间</t>
+  </si>
+  <si>
+    <t>工作消毒间</t>
+  </si>
+  <si>
+    <t>观察工作间</t>
+  </si>
+  <si>
+    <t>控制室</t>
+  </si>
+  <si>
+    <t>调度中心</t>
+  </si>
+  <si>
+    <t>监控中心</t>
+  </si>
+  <si>
+    <t>中央控制室</t>
+  </si>
+  <si>
+    <t>单元控制室</t>
+  </si>
+  <si>
+    <t>各单元控制室</t>
+  </si>
+  <si>
+    <t>电站控制室</t>
+  </si>
+  <si>
+    <t>消防水泵控制室</t>
+  </si>
+  <si>
+    <t>配电室</t>
+  </si>
+  <si>
+    <t>低压配电室</t>
+  </si>
+  <si>
+    <t>高压配电室</t>
+  </si>
+  <si>
+    <t>变压器室</t>
+  </si>
+  <si>
+    <t>油浸变压器室</t>
+  </si>
+  <si>
+    <t>发电机间</t>
+  </si>
+  <si>
+    <t>变电室</t>
+  </si>
+  <si>
+    <t>电容器室</t>
+  </si>
+  <si>
+    <t>电缆室</t>
+  </si>
+  <si>
+    <t>网络通信机房</t>
+  </si>
+  <si>
+    <t>有线电视机房</t>
+  </si>
+  <si>
+    <t>无线覆盖机房</t>
+  </si>
+  <si>
+    <t>宏站机房</t>
+  </si>
+  <si>
+    <t>运营商机房</t>
+  </si>
+  <si>
+    <t>电信间</t>
+  </si>
+  <si>
+    <t>计算机机房</t>
+  </si>
+  <si>
+    <t>涡轮机房</t>
+  </si>
+  <si>
+    <t>液压站</t>
+  </si>
+  <si>
+    <t>润滑油站</t>
+  </si>
+  <si>
+    <t>电梯机房</t>
+  </si>
+  <si>
+    <t>给排水设备间</t>
+  </si>
+  <si>
+    <t>水泵机房</t>
+  </si>
+  <si>
+    <t>消防水泵房</t>
+  </si>
+  <si>
+    <t>给水泵房</t>
+  </si>
+  <si>
+    <t>生活饮用水供水泵房</t>
+  </si>
+  <si>
+    <t>净水机房</t>
+  </si>
+  <si>
+    <t>优质饮用水设备间</t>
+  </si>
+  <si>
+    <t>臭氧发生器间</t>
+  </si>
+  <si>
+    <t>次氯酸钠发生器间</t>
+  </si>
+  <si>
+    <t>盐氯发生器间</t>
+  </si>
+  <si>
+    <t>水处理房间</t>
+  </si>
+  <si>
+    <t>加氯间</t>
+  </si>
+  <si>
+    <t>加氨间</t>
+  </si>
+  <si>
+    <t>氯蒸发间</t>
+  </si>
+  <si>
+    <t>二氧化氯发生间</t>
+  </si>
+  <si>
+    <t>二氧化氯投加设备间</t>
+  </si>
+  <si>
+    <t>臭氧发生间</t>
+  </si>
+  <si>
+    <t>取水泵房</t>
+  </si>
+  <si>
+    <t>岸上取水泵房</t>
+  </si>
+  <si>
+    <t>江心式取水泵房</t>
+  </si>
+  <si>
+    <t>岸边式取水泵房</t>
+  </si>
+  <si>
+    <t>水处理车间</t>
+  </si>
+  <si>
+    <t>细粉类水处理药剂车间</t>
+  </si>
+  <si>
+    <t>燃气机房</t>
+  </si>
+  <si>
+    <t>重油加热器间</t>
+  </si>
+  <si>
+    <t>燃气增压间</t>
+  </si>
+  <si>
+    <t>调压间</t>
+  </si>
+  <si>
+    <t>计量间</t>
+  </si>
+  <si>
+    <t>检查室</t>
+  </si>
+  <si>
+    <t>供热管道舱室</t>
+  </si>
+  <si>
+    <t>燃气管道舱室</t>
+  </si>
+  <si>
+    <t>燃气处理房间</t>
+  </si>
+  <si>
+    <t>调压计量间</t>
+  </si>
+  <si>
+    <t>压缩机间</t>
+  </si>
+  <si>
+    <t>灌瓶间</t>
+  </si>
+  <si>
+    <t>燃气调压间</t>
+  </si>
+  <si>
+    <t>暖通机房</t>
+  </si>
+  <si>
+    <t>空调机房</t>
+  </si>
+  <si>
+    <t>通风机房</t>
+  </si>
+  <si>
+    <t>换热机房</t>
+  </si>
+  <si>
+    <t>制冷机房</t>
+  </si>
+  <si>
+    <t>锅炉间</t>
+  </si>
+  <si>
+    <t>独立锅炉房</t>
+  </si>
+  <si>
+    <t>非独立锅炉房</t>
+  </si>
+  <si>
+    <t>燃煤锅炉间</t>
+  </si>
+  <si>
+    <t>燃煤锅炉房</t>
+  </si>
+  <si>
+    <t>燃油锅炉间</t>
+  </si>
+  <si>
+    <t>燃油锅炉房</t>
+  </si>
+  <si>
+    <t>燃气锅炉间</t>
+  </si>
+  <si>
+    <t>燃气锅炉房</t>
+  </si>
+  <si>
+    <t>垃圾间</t>
+  </si>
+  <si>
+    <t>独立垃圾收集存储间</t>
+  </si>
+  <si>
+    <t>公共厨房垃圾间</t>
+  </si>
+  <si>
+    <t>城镇生活垃圾房</t>
+  </si>
+  <si>
+    <t>分类生活垃圾房</t>
+  </si>
+  <si>
+    <t>城镇生活垃圾屋</t>
+  </si>
+  <si>
+    <t>干湿集中垃圾间</t>
+  </si>
+  <si>
+    <t>分类生活垃圾屋</t>
+  </si>
+  <si>
+    <t>集中干垃圾间</t>
+  </si>
+  <si>
+    <t>集中湿垃圾间</t>
+  </si>
+  <si>
+    <t>无障碍服务场所</t>
+  </si>
+  <si>
+    <t>少年儿童专用活动场所</t>
+  </si>
+  <si>
+    <t>儿童活动设施，儿童用房</t>
+  </si>
+  <si>
+    <t>幼儿园的儿童用房</t>
+  </si>
+  <si>
+    <t>儿童游乐设施</t>
+  </si>
+  <si>
+    <t>儿童游乐厅</t>
+  </si>
+  <si>
+    <t>儿童游憩区</t>
+  </si>
+  <si>
+    <t>儿童专用厕所</t>
+  </si>
+  <si>
+    <t>老年人专用活动场所</t>
+  </si>
+  <si>
+    <t>老年人公共活动用房</t>
+  </si>
+  <si>
+    <t>康复与医疗用房</t>
+  </si>
+  <si>
+    <t>无障碍通道</t>
+  </si>
+  <si>
+    <t>室外无障碍通道</t>
+  </si>
+  <si>
+    <t>室内无障碍通道</t>
+  </si>
+  <si>
+    <t>无障碍电梯前室</t>
+  </si>
+  <si>
+    <t>无障碍电梯的候梯厅</t>
+  </si>
+  <si>
+    <t>无障碍盆浴间</t>
+  </si>
+  <si>
+    <t>无障碍淋浴间</t>
+  </si>
+  <si>
+    <t>无障碍居室</t>
+  </si>
+  <si>
+    <t>无障碍客房</t>
+  </si>
+  <si>
+    <t>无障碍厨房</t>
+  </si>
+  <si>
+    <t>无障碍卫生间</t>
+  </si>
+  <si>
+    <t>无障碍落客区</t>
+  </si>
+  <si>
+    <t>安防监控中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防控制室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变电室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间内是否布置电子巡更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子设备间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防排烟机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间外是否需要布置电子巡更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-枪式摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-人脸识别摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-半球摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-枪式摄像机（带室内防护罩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-人脸识别摄像机（翻转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-半球摄像机（翻转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口控制-枪式摄像机（带室内防护罩）（翻转）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配电室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电机间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅炉间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无障碍卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵报警-残卫报警</t>
+  </si>
+  <si>
+    <t>入侵报警-紧急报警</t>
+  </si>
+  <si>
+    <t>入侵报警-紧急报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安防监控中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明</t>
+  </si>
+  <si>
+    <t>滑雪，雪场</t>
+  </si>
+  <si>
+    <t>滑雪场</t>
+  </si>
+  <si>
+    <t>溜冰，冰场</t>
+  </si>
+  <si>
+    <t>溜冰场</t>
+  </si>
+  <si>
+    <t>游泳，泳池</t>
+  </si>
+  <si>
+    <t>游泳池</t>
+  </si>
+  <si>
+    <t>涉水运动场所</t>
+  </si>
+  <si>
+    <t>体育建筑</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；正常照明</t>
+  </si>
+  <si>
+    <t>化妆室</t>
+  </si>
+  <si>
+    <t>排演厅</t>
+  </si>
+  <si>
+    <t>音乐厅</t>
+  </si>
+  <si>
+    <t>剧场</t>
+  </si>
+  <si>
+    <t>公共区域</t>
+  </si>
+  <si>
+    <t>剧院</t>
+  </si>
+  <si>
+    <t>影院售卖区</t>
+  </si>
+  <si>
+    <t>*售票厅</t>
+  </si>
+  <si>
+    <t>放映室</t>
+  </si>
+  <si>
+    <t>*放映间，*放映机房，*放映室</t>
+  </si>
+  <si>
+    <t>放映设备间</t>
+  </si>
+  <si>
+    <t>VIP休息室</t>
+  </si>
+  <si>
+    <t>影院大堂</t>
+  </si>
+  <si>
+    <t>*影院大堂</t>
+  </si>
+  <si>
+    <t>观众休息厅</t>
+  </si>
+  <si>
+    <t>影院观众厅</t>
+  </si>
+  <si>
+    <t>*观众厅，*影厅</t>
+  </si>
+  <si>
+    <t>观众厅</t>
+  </si>
+  <si>
+    <t>电影院</t>
+  </si>
+  <si>
+    <t>观演建筑</t>
+  </si>
+  <si>
+    <t>早教</t>
+  </si>
+  <si>
+    <t>*早教，*培训</t>
+  </si>
+  <si>
+    <t>游戏厅</t>
+  </si>
+  <si>
+    <t>*游戏厅，*电玩室，*电玩</t>
+  </si>
+  <si>
+    <t>电玩游戏厅</t>
+  </si>
+  <si>
+    <t>健身房</t>
+  </si>
+  <si>
+    <t>*健身房，*健身区，*健身区域</t>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>儿童游乐</t>
+  </si>
+  <si>
+    <t>*儿童娱乐</t>
+  </si>
+  <si>
+    <t>儿童攀爬游乐</t>
+  </si>
+  <si>
+    <t>冰场</t>
+  </si>
+  <si>
+    <t>母婴室</t>
+  </si>
+  <si>
+    <t>浴室</t>
+  </si>
+  <si>
+    <t>大堂</t>
+  </si>
+  <si>
+    <t>私有区域；感烟火灾探测器；疏散指示；疏散照明面积判断</t>
+  </si>
+  <si>
+    <t>营业厅</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>*百货，商铺，*商业</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>西餐</t>
+  </si>
+  <si>
+    <t>*电餐，*西餐，*轻餐</t>
+  </si>
+  <si>
+    <t>无燃气餐饮</t>
+  </si>
+  <si>
+    <t>中餐</t>
+  </si>
+  <si>
+    <t>私有区域；感烟火灾探测器；可燃气体探测器；疏散指示；疏散照明面积判断</t>
+  </si>
+  <si>
+    <t>*中餐，*美食广场</t>
+  </si>
+  <si>
+    <t>燃气餐饮</t>
+  </si>
+  <si>
+    <t>*餐饮</t>
+  </si>
+  <si>
+    <t>餐饮</t>
+  </si>
+  <si>
+    <t>商店建筑</t>
+  </si>
+  <si>
+    <t>茶水间</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器</t>
+  </si>
+  <si>
+    <t>*开水间</t>
+  </si>
+  <si>
+    <t>*餐厅</t>
+  </si>
+  <si>
+    <t>餐厅</t>
+  </si>
+  <si>
+    <t>服务大厅</t>
+  </si>
+  <si>
+    <t>前台</t>
+  </si>
+  <si>
+    <t>会议室</t>
+  </si>
+  <si>
+    <t>接待室</t>
+  </si>
+  <si>
+    <t>多功能厅</t>
+  </si>
+  <si>
+    <t>商务会客室</t>
+  </si>
+  <si>
+    <t>视频会议室</t>
+  </si>
+  <si>
+    <t>办公室</t>
+  </si>
+  <si>
+    <t>发行室</t>
+  </si>
+  <si>
+    <t>文件整理室</t>
+  </si>
+  <si>
+    <t>复印</t>
+  </si>
+  <si>
+    <t>复印室</t>
+  </si>
+  <si>
+    <t>储藏间</t>
+  </si>
+  <si>
+    <t>档案</t>
+  </si>
+  <si>
+    <t>档案室</t>
+  </si>
+  <si>
+    <t>设计室</t>
+  </si>
+  <si>
+    <t>高档办公室</t>
+  </si>
+  <si>
+    <t>*办公</t>
+  </si>
+  <si>
+    <t>普通办公室</t>
+  </si>
+  <si>
+    <t>办公建筑</t>
+  </si>
+  <si>
+    <t>私有区域；感烟火灾探测器</t>
+  </si>
+  <si>
+    <t>*公寓*</t>
+  </si>
+  <si>
+    <t>公寓</t>
+  </si>
+  <si>
+    <t>私有区域</t>
+  </si>
+  <si>
+    <t>玄关</t>
+  </si>
+  <si>
+    <t>过道</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>书房</t>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>客厅</t>
+  </si>
+  <si>
+    <t>起居室</t>
+  </si>
+  <si>
+    <t>私有区域；不可布置广播</t>
+  </si>
+  <si>
+    <t>居住套型</t>
+  </si>
+  <si>
+    <t>居住建筑</t>
+  </si>
+  <si>
+    <t>*无障碍厕所，*无障碍卫生间</t>
+  </si>
+  <si>
+    <t>无障碍卧室</t>
+  </si>
+  <si>
+    <t>私有区域；感烟火灾探测器；正常照明；不可布置广播</t>
+  </si>
+  <si>
+    <t>无障碍套型，无障碍户型，无障碍房型</t>
+  </si>
+  <si>
+    <t>无障碍套型</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；正常照明；必须布置广播</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；正常照明</t>
+  </si>
+  <si>
+    <t>轮椅回转空间</t>
+  </si>
+  <si>
+    <t>轮椅通道，*无障碍通道</t>
+  </si>
+  <si>
+    <t>无障碍设施</t>
+  </si>
+  <si>
+    <t>非机动车库</t>
+  </si>
+  <si>
+    <t>自行车坡道</t>
+  </si>
+  <si>
+    <t>非机动车坡道</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；车位照明；车道照明</t>
+  </si>
+  <si>
+    <t>非机动车库充电区域</t>
+  </si>
+  <si>
+    <t>非机动车库非充电车区域</t>
+  </si>
+  <si>
+    <t>自行车库</t>
+  </si>
+  <si>
+    <t>坡道*，汽车坡道*</t>
+  </si>
+  <si>
+    <t>汽车坡道</t>
+  </si>
+  <si>
+    <t>机动车库</t>
+  </si>
+  <si>
+    <t>地下车库</t>
+  </si>
+  <si>
+    <t>停车库，车库，I类汽车库，II类汽车库，机动车库</t>
+  </si>
+  <si>
+    <t>汽车库</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域</t>
+  </si>
+  <si>
+    <t>非机动车停车场</t>
+  </si>
+  <si>
+    <t>机动车停车场</t>
+  </si>
+  <si>
+    <t>停车场</t>
+  </si>
+  <si>
+    <t>停车设施</t>
+  </si>
+  <si>
+    <t>有害垃圾间，有害垃圾</t>
+  </si>
+  <si>
+    <t>集中有害垃圾间</t>
+  </si>
+  <si>
+    <t>可回收物垃圾间，可回收物</t>
+  </si>
+  <si>
+    <t>集中可回收物垃圾间</t>
+  </si>
+  <si>
+    <t>湿垃圾间，湿垃圾</t>
+  </si>
+  <si>
+    <t>干垃圾间，干垃圾</t>
+  </si>
+  <si>
+    <t>生活垃圾</t>
+  </si>
+  <si>
+    <t>厨余垃圾间，厨余垃圾</t>
+  </si>
+  <si>
+    <t>湿垃圾房</t>
+  </si>
+  <si>
+    <t>*湿垃圾</t>
+  </si>
+  <si>
+    <t>干垃圾房</t>
+  </si>
+  <si>
+    <t>*干垃圾</t>
+  </si>
+  <si>
+    <t>垃圾房</t>
+  </si>
+  <si>
+    <t>公共区域；感温火灾探测器；正常照明</t>
+  </si>
+  <si>
+    <t>*热水机房</t>
+  </si>
+  <si>
+    <t>热水机房</t>
+  </si>
+  <si>
+    <t>公共区域；可燃气体探测器；正常照明；防爆</t>
+  </si>
+  <si>
+    <t>锅炉房</t>
+  </si>
+  <si>
+    <t>*锅炉房，燃烧设备间</t>
+  </si>
+  <si>
+    <t>*冷冻机房，*制冷机房</t>
+  </si>
+  <si>
+    <t>热力小室，热力入口间</t>
+  </si>
+  <si>
+    <t>热交换间</t>
+  </si>
+  <si>
+    <t>*换热站，*热交换间，*热交换</t>
+  </si>
+  <si>
+    <t>*补风机房，*送风兼补风机房，*补风兼送风机房</t>
+  </si>
+  <si>
+    <t>补风机房</t>
+  </si>
+  <si>
+    <t>*消防排烟机房，*排烟兼排风机房，*排风兼排烟机房，*排烟机房</t>
+  </si>
+  <si>
+    <t>排烟机房</t>
+  </si>
+  <si>
+    <t>*正压送风机房，*加压机房，*正压机房，*加压补风机房</t>
+  </si>
+  <si>
+    <t>加压送风机房</t>
+  </si>
+  <si>
+    <t>*防排烟风机，*消防风机房</t>
+  </si>
+  <si>
+    <t>防排烟机房</t>
+  </si>
+  <si>
+    <t>*送风机房，*排风机房，*通风机房</t>
+  </si>
+  <si>
+    <t>*空调机房，*新风机房</t>
+  </si>
+  <si>
+    <t>燃气间</t>
+  </si>
+  <si>
+    <t>*调压间，*燃气表间，*燃气调压间</t>
+  </si>
+  <si>
+    <t>*调压站</t>
+  </si>
+  <si>
+    <t>公共区域；可燃气体探测器；防爆</t>
+  </si>
+  <si>
+    <t>设备间</t>
+  </si>
+  <si>
+    <t>清水泵房</t>
+  </si>
+  <si>
+    <t>报警阀间</t>
+  </si>
+  <si>
+    <t>污水提升间</t>
+  </si>
+  <si>
+    <t>污水提升泵房，*提升泵房，污水提升间，污水处理间，*污水*</t>
+  </si>
+  <si>
+    <t>污水提升机房</t>
+  </si>
+  <si>
+    <t>隔油处理间</t>
+  </si>
+  <si>
+    <t>*隔油间，*隔油池间，*隔油处理间</t>
+  </si>
+  <si>
+    <t>隔油机房</t>
+  </si>
+  <si>
+    <t>*雨水回收机房，*雨水回用机房，*雨水机房，*雨水回收间</t>
+  </si>
+  <si>
+    <t>雨水回收机房</t>
+  </si>
+  <si>
+    <t>生活转输泵房</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散照明；疏散指示；正常照明</t>
+  </si>
+  <si>
+    <t>消防转输泵房</t>
+  </si>
+  <si>
+    <t>*生活水泵房，*生活泵房</t>
+  </si>
+  <si>
+    <t>*消防水泵房，*消防泵房，*消防增压设备间</t>
+  </si>
+  <si>
+    <t>地下式井泵房，半地下式井泵房，冷却水泵房，空调水迸发，*泵房，*水泵房</t>
+  </si>
+  <si>
+    <t>*电梯机房，*客梯机房，*货梯机房</t>
+  </si>
+  <si>
+    <t>弱电机房</t>
+  </si>
+  <si>
+    <t>计算机房，数据机房</t>
+  </si>
+  <si>
+    <t>通讯机房，接入机房，移动进线机房，移动机房，电信接入机房，电信机房，联通接入机房，联通机房，电信间，电信房</t>
+  </si>
+  <si>
+    <t>卫星电视</t>
+  </si>
+  <si>
+    <t>网络机房，MDF机房</t>
+  </si>
+  <si>
+    <t>电子信息设备用房</t>
+  </si>
+  <si>
+    <t>电子设备间</t>
+  </si>
+  <si>
+    <t>配电间</t>
+  </si>
+  <si>
+    <t>变配电所</t>
+  </si>
+  <si>
+    <t>*变电所*，*变配电所*，*变电站*，*变配电站*，*配电站*，*配电房*，*KT站，*K站，*PT站，*P站，*开关站，*开闭所，*公变，*专变，*自维变，*局维变</t>
+  </si>
+  <si>
+    <t>柴油发电机房</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；感温火灾探测器；疏散照明；疏散指示；正常照明</t>
+  </si>
+  <si>
+    <t>*柴油电站，*柴发机房，*柴油发电机房</t>
+  </si>
+  <si>
+    <t>*变压器室</t>
+  </si>
+  <si>
+    <t>高压配电间</t>
+  </si>
+  <si>
+    <t>低压配电间</t>
+  </si>
+  <si>
+    <t>地库配电间</t>
+  </si>
+  <si>
+    <t>电气机房</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；正常照明；不可布置广播</t>
+  </si>
+  <si>
+    <t>其它设备房间，设备用房，设备间，设备间室，设备房间，机房，其他设备间，其他机房，设备集中房间</t>
+  </si>
+  <si>
+    <t>设备机房</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>锅炉房值班室</t>
+  </si>
+  <si>
+    <t>锅炉房控制室</t>
+  </si>
+  <si>
+    <t>制冷机房值班室，冷冻机房控制室，冷冻机房值班室</t>
+  </si>
+  <si>
+    <t>制冷机房控制室</t>
+  </si>
+  <si>
+    <t>消防水泵值班室</t>
+  </si>
+  <si>
+    <t>设备控制室</t>
+  </si>
+  <si>
+    <t>电站值班室，变电所控制室，变电所值班室</t>
+  </si>
+  <si>
+    <t>消防控制中心，消控安保监控中心，消控室兼安保监控中心，消控安保中心，消控室兼安保中心，消控室兼安保控制室，消控安保控制室，消控安保监控室，消控室兼安保监控室</t>
+  </si>
+  <si>
+    <t>消防控制室</t>
+  </si>
+  <si>
+    <t>安保中心，安保控制室，消控安保监控中心，消控室兼安保监控中心，消控安保中心，消控室兼安保中心，消控室兼安保控制室，消控安保控制室，消控安保监控室，消控室兼安保监控室</t>
+  </si>
+  <si>
+    <t>安防监控中心</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域</t>
+  </si>
+  <si>
+    <t>雨水回收水池</t>
+  </si>
+  <si>
+    <t>景观水池</t>
+  </si>
+  <si>
+    <t>生活水池</t>
+  </si>
+  <si>
+    <t>消防水池</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域；不可布置广播</t>
+  </si>
+  <si>
+    <t>水池</t>
+  </si>
+  <si>
+    <t>消防水箱间</t>
+  </si>
+  <si>
+    <t>生活水箱间</t>
+  </si>
+  <si>
+    <t>屋顶水箱间</t>
+  </si>
+  <si>
+    <t>气体灭火钢瓶间</t>
+  </si>
+  <si>
+    <t>气瓶专用房间</t>
+  </si>
+  <si>
+    <t>*储藏室，*工具间</t>
+  </si>
+  <si>
+    <t>储物间</t>
+  </si>
+  <si>
+    <t>油箱间</t>
+  </si>
+  <si>
+    <t>贮藏间，储藏等基本功能空间，储藏空间，储藏</t>
+  </si>
+  <si>
+    <t>排烟井，补风井，加压送风井，正压送风井，加压风井，正压风井，*补风，*排烟，*正压，*加压</t>
+  </si>
+  <si>
+    <t>防排烟井</t>
+  </si>
+  <si>
+    <t>送风井，排风井，排油烟井，烟井，*风口，*送风</t>
+  </si>
+  <si>
+    <t>通风井</t>
+  </si>
+  <si>
+    <t>新风井，新风</t>
+  </si>
+  <si>
+    <t>空调风井</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；电井照明；不可布置广播</t>
+  </si>
+  <si>
+    <t>*弱电间，弱电，电井，*弱电井</t>
+  </si>
+  <si>
+    <t>弱电井</t>
+  </si>
+  <si>
+    <t>*强电间，强电，电井，*强电井</t>
+  </si>
+  <si>
+    <t>强电井</t>
+  </si>
+  <si>
+    <t>空调水井，冷媒井，空调水管井，空调水管，空调水，冷却水井，冷却水</t>
+  </si>
+  <si>
+    <t>空调管井</t>
+  </si>
+  <si>
+    <t>公共区域；可燃气体探测器；燃气井照明；防爆；不可布置广播</t>
+  </si>
+  <si>
+    <t>燃气井，煤气井，天然气井，天然气，煤气</t>
+  </si>
+  <si>
+    <t>燃气管井</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域；水井照明；不可布置广播</t>
+  </si>
+  <si>
+    <t>水井，水，给水，排水</t>
+  </si>
+  <si>
+    <t>水管井</t>
+  </si>
+  <si>
+    <t>固定窗井</t>
+  </si>
+  <si>
+    <t>采光天井，天井</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域；电梯井道照明；不可布置广播</t>
+  </si>
+  <si>
+    <t>观光梯</t>
+  </si>
+  <si>
+    <t>观光电梯</t>
+  </si>
+  <si>
+    <t>食梯</t>
+  </si>
+  <si>
+    <t>餐梯</t>
+  </si>
+  <si>
+    <t>担架电梯兼货梯</t>
+  </si>
+  <si>
+    <t>担架电梯兼消防电梯</t>
+  </si>
+  <si>
+    <t>无障碍电梯兼消防电梯</t>
+  </si>
+  <si>
+    <t>消防电梯兼担架电梯</t>
+  </si>
+  <si>
+    <t>消防电梯兼无障碍电梯</t>
+  </si>
+  <si>
+    <t>担架电梯</t>
+  </si>
+  <si>
+    <t>载货电梯，载货梯，HT*</t>
+  </si>
+  <si>
+    <t>货梯</t>
+  </si>
+  <si>
+    <t>无障碍梯，*无障碍电梯*</t>
+  </si>
+  <si>
+    <t>无障碍电梯</t>
+  </si>
+  <si>
+    <t>*客梯*</t>
+  </si>
+  <si>
+    <t>客梯</t>
+  </si>
+  <si>
+    <t>*消防电梯*</t>
+  </si>
+  <si>
+    <t>消防电梯</t>
+  </si>
+  <si>
+    <t>*电梯，*DT*，*电梯井</t>
+  </si>
+  <si>
+    <t>电梯井道</t>
+  </si>
+  <si>
+    <t>井道</t>
+  </si>
+  <si>
+    <t>清洁间</t>
+  </si>
+  <si>
+    <t>拖把间</t>
+  </si>
+  <si>
+    <t>拖把池间</t>
+  </si>
+  <si>
+    <t>*清洁间</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>*女厕，*女卫生间</t>
+  </si>
+  <si>
+    <t>女卫</t>
+  </si>
+  <si>
+    <t>*男厕，*男卫生间</t>
+  </si>
+  <si>
+    <t>男卫</t>
+  </si>
+  <si>
+    <t>公共厕所，公厕，卫生间</t>
+  </si>
+  <si>
+    <t>公共卫生间</t>
+  </si>
+  <si>
+    <t>中庭</t>
+  </si>
+  <si>
+    <t>检修走道</t>
+  </si>
+  <si>
+    <t>防毒通道和密闭通道，密闭通道</t>
+  </si>
+  <si>
+    <t>客梯厅</t>
+  </si>
+  <si>
+    <t>货梯厅</t>
+  </si>
+  <si>
+    <t>电梯厅</t>
+  </si>
+  <si>
+    <t>公共走廊</t>
+  </si>
+  <si>
+    <t>公共走道</t>
+  </si>
+  <si>
+    <t>后勤走道</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
+    <t>楼层走道间，室内回廊，室内走道，*走廊</t>
+  </si>
+  <si>
+    <t>共用前室，*合用前室*</t>
+  </si>
+  <si>
+    <t>合用前室</t>
+  </si>
+  <si>
+    <t>*电梯前室*</t>
+  </si>
+  <si>
+    <t>电梯前室</t>
+  </si>
+  <si>
+    <t>消防前室，*消防电梯前室*</t>
+  </si>
+  <si>
+    <t>消防电梯前室</t>
+  </si>
+  <si>
+    <t>防烟楼梯间前室，*防烟前室*</t>
+  </si>
+  <si>
+    <t>防烟前室</t>
+  </si>
+  <si>
+    <t>扩大合用前室，*扩大前室*</t>
+  </si>
+  <si>
+    <t>扩大前室</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
+  </si>
+  <si>
+    <t>楼梯间前室，封闭前室，*前室*</t>
+  </si>
+  <si>
+    <t>前室</t>
+  </si>
+  <si>
+    <t>人防楼梯间</t>
+  </si>
+  <si>
+    <t>地上防烟楼梯间，地下防烟楼梯间</t>
+  </si>
+  <si>
+    <t>防烟楼梯间</t>
+  </si>
+  <si>
+    <t>地上封闭楼梯间，地下封闭楼梯间</t>
+  </si>
+  <si>
     <t>封闭楼梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户大堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非机动车库</t>
+  </si>
+  <si>
+    <t>开敞楼梯间</t>
+  </si>
+  <si>
+    <t>*LT*，BT*，BLT*，疏散楼梯间，*楼梯间</t>
+  </si>
+  <si>
+    <t>楼梯间</t>
+  </si>
+  <si>
+    <t>公共场所</t>
+  </si>
+  <si>
+    <t>私有区域；非火灾探测区域</t>
+  </si>
+  <si>
+    <t>*阳台</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>*天井</t>
+  </si>
+  <si>
+    <t>天井</t>
+  </si>
+  <si>
+    <t>门斗</t>
+  </si>
+  <si>
+    <t>不上人屋面</t>
+  </si>
+  <si>
+    <t>上人屋面</t>
+  </si>
+  <si>
+    <t>屋面，裙房屋面，塔楼屋面，*屋面</t>
+  </si>
+  <si>
+    <t>屋顶</t>
+  </si>
+  <si>
+    <t>*下沉广场，*下沉庭院</t>
+  </si>
+  <si>
+    <t>下沉广场</t>
+  </si>
+  <si>
+    <t>台阶</t>
+  </si>
+  <si>
+    <t>室外台阶</t>
+  </si>
+  <si>
+    <t>花池</t>
+  </si>
+  <si>
+    <t>花坛</t>
+  </si>
+  <si>
+    <t>水景</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>绿化</t>
+  </si>
+  <si>
+    <t>公共区域；非火灾探测区域；疏散指示</t>
+  </si>
+  <si>
+    <t>*室外楼梯</t>
+  </si>
+  <si>
+    <t>室外楼梯</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示</t>
+  </si>
+  <si>
+    <t>*天桥</t>
+  </si>
+  <si>
+    <t>天桥</t>
+  </si>
+  <si>
+    <t>*停机坪</t>
+  </si>
+  <si>
+    <t>直升飞机停机坪</t>
+  </si>
+  <si>
+    <t>室外机平台</t>
+  </si>
+  <si>
+    <t>设备平台</t>
+  </si>
+  <si>
+    <t>不上人平台</t>
+  </si>
+  <si>
+    <t>上人平台</t>
+  </si>
+  <si>
+    <t>室外平台</t>
+  </si>
+  <si>
+    <t>室外走道</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示；疏散照明</t>
+  </si>
+  <si>
+    <t>*外廊，*连廊</t>
+  </si>
+  <si>
+    <t>室外连廊</t>
+  </si>
+  <si>
+    <t>外廊</t>
+  </si>
+  <si>
+    <t>室外</t>
+  </si>
+  <si>
+    <t>室外区域</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>暖通房间功能标签</t>
+  </si>
+  <si>
+    <t>疏散照明设置判据</t>
+  </si>
+  <si>
+    <t>LPD</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>同义词（逗号分隔）</t>
+  </si>
+  <si>
+    <t>四级</t>
+  </si>
+  <si>
+    <t>三级</t>
+  </si>
+  <si>
+    <t>二级</t>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>*大堂，*门厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水处理房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,1827 +1980,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电梯厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非机动车坡道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下沉庭院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯井道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯井道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入侵报警-残卫报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-枪式摄像机（翻转）</t>
-  </si>
-  <si>
-    <t>入口控制-枪式摄像机（翻转）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非标层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大屋面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区活动中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沿线均布-枪式摄像机</t>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配电间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机动车库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非机动车库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业通道</t>
-  </si>
-  <si>
-    <t>施工通道</t>
-  </si>
-  <si>
-    <t>防毒通道</t>
-  </si>
-  <si>
-    <t>采光井</t>
-  </si>
-  <si>
-    <t>窗井</t>
-  </si>
-  <si>
-    <t>管道井</t>
-  </si>
-  <si>
-    <t>风井</t>
-  </si>
-  <si>
-    <t>存储房间</t>
-  </si>
-  <si>
-    <t>库房</t>
-  </si>
-  <si>
-    <t>仓库，仓库类似场所</t>
-  </si>
-  <si>
-    <t>备品库</t>
-  </si>
-  <si>
-    <t>原料库房</t>
-  </si>
-  <si>
-    <t>原料库房室</t>
-  </si>
-  <si>
-    <t>空瓶存放区</t>
-  </si>
-  <si>
-    <t>冷藏库房</t>
-  </si>
-  <si>
-    <t>油库</t>
-  </si>
-  <si>
-    <t>地下油库</t>
-  </si>
-  <si>
-    <t>储油间</t>
-  </si>
-  <si>
-    <t>燃油间，油箱间，贮油间</t>
-  </si>
-  <si>
-    <t>气瓶间</t>
-  </si>
-  <si>
-    <t>图书库</t>
-  </si>
-  <si>
-    <t>资料库</t>
-  </si>
-  <si>
-    <t>档案库</t>
-  </si>
-  <si>
-    <t>文物库</t>
-  </si>
-  <si>
-    <t>干煤棚</t>
-  </si>
-  <si>
-    <t>碎煤转运间</t>
-  </si>
-  <si>
-    <t>油泵间</t>
-  </si>
-  <si>
-    <t>物资储备库</t>
-  </si>
-  <si>
-    <t>物资库，物资储库</t>
-  </si>
-  <si>
-    <t>食品库房</t>
-  </si>
-  <si>
-    <t>主副食库房</t>
-  </si>
-  <si>
-    <t>食品站</t>
-  </si>
-  <si>
-    <t>水箱间</t>
-  </si>
-  <si>
-    <t>实验室</t>
-  </si>
-  <si>
-    <t>室内土工试验室</t>
-  </si>
-  <si>
-    <t>化学试验室</t>
-  </si>
-  <si>
-    <t>化验室</t>
-  </si>
-  <si>
-    <t>工作间</t>
-  </si>
-  <si>
-    <t>工作消毒间</t>
-  </si>
-  <si>
-    <t>观察工作间</t>
-  </si>
-  <si>
-    <t>控制室</t>
-  </si>
-  <si>
-    <t>调度中心</t>
-  </si>
-  <si>
-    <t>监控中心</t>
-  </si>
-  <si>
-    <t>中央控制室</t>
-  </si>
-  <si>
-    <t>单元控制室</t>
-  </si>
-  <si>
-    <t>各单元控制室</t>
-  </si>
-  <si>
-    <t>电站控制室</t>
-  </si>
-  <si>
-    <t>消防水泵控制室</t>
-  </si>
-  <si>
-    <t>配电室</t>
-  </si>
-  <si>
-    <t>低压配电室</t>
-  </si>
-  <si>
-    <t>高压配电室</t>
-  </si>
-  <si>
-    <t>变压器室</t>
-  </si>
-  <si>
-    <t>油浸变压器室</t>
-  </si>
-  <si>
-    <t>发电机间</t>
-  </si>
-  <si>
-    <t>变电室</t>
-  </si>
-  <si>
-    <t>电容器室</t>
-  </si>
-  <si>
-    <t>电缆室</t>
-  </si>
-  <si>
-    <t>网络通信机房</t>
-  </si>
-  <si>
-    <t>有线电视机房</t>
-  </si>
-  <si>
-    <t>无线覆盖机房</t>
-  </si>
-  <si>
-    <t>宏站机房</t>
-  </si>
-  <si>
-    <t>运营商机房</t>
-  </si>
-  <si>
-    <t>电信间</t>
-  </si>
-  <si>
-    <t>计算机机房</t>
-  </si>
-  <si>
-    <t>涡轮机房</t>
-  </si>
-  <si>
-    <t>液压站</t>
-  </si>
-  <si>
-    <t>润滑油站</t>
-  </si>
-  <si>
-    <t>电梯机房</t>
-  </si>
-  <si>
-    <t>给排水设备间</t>
-  </si>
-  <si>
-    <t>水泵机房</t>
-  </si>
-  <si>
-    <t>消防水泵房</t>
-  </si>
-  <si>
-    <t>给水泵房</t>
-  </si>
-  <si>
-    <t>生活饮用水供水泵房</t>
-  </si>
-  <si>
-    <t>净水机房</t>
-  </si>
-  <si>
-    <t>优质饮用水设备间</t>
-  </si>
-  <si>
-    <t>臭氧发生器间</t>
-  </si>
-  <si>
-    <t>次氯酸钠发生器间</t>
-  </si>
-  <si>
-    <t>盐氯发生器间</t>
-  </si>
-  <si>
-    <t>水处理房间</t>
-  </si>
-  <si>
-    <t>加氯间</t>
-  </si>
-  <si>
-    <t>加氨间</t>
-  </si>
-  <si>
-    <t>氯蒸发间</t>
-  </si>
-  <si>
-    <t>二氧化氯发生间</t>
-  </si>
-  <si>
-    <t>二氧化氯投加设备间</t>
-  </si>
-  <si>
-    <t>臭氧发生间</t>
-  </si>
-  <si>
-    <t>取水泵房</t>
-  </si>
-  <si>
-    <t>岸上取水泵房</t>
-  </si>
-  <si>
-    <t>江心式取水泵房</t>
-  </si>
-  <si>
-    <t>岸边式取水泵房</t>
-  </si>
-  <si>
-    <t>水处理车间</t>
-  </si>
-  <si>
-    <t>细粉类水处理药剂车间</t>
-  </si>
-  <si>
-    <t>燃气机房</t>
-  </si>
-  <si>
-    <t>重油加热器间</t>
-  </si>
-  <si>
-    <t>燃气增压间</t>
-  </si>
-  <si>
-    <t>调压间</t>
-  </si>
-  <si>
-    <t>计量间</t>
-  </si>
-  <si>
-    <t>检查室</t>
-  </si>
-  <si>
-    <t>供热管道舱室</t>
-  </si>
-  <si>
-    <t>燃气管道舱室</t>
-  </si>
-  <si>
-    <t>燃气处理房间</t>
-  </si>
-  <si>
-    <t>调压计量间</t>
-  </si>
-  <si>
-    <t>压缩机间</t>
-  </si>
-  <si>
-    <t>灌瓶间</t>
-  </si>
-  <si>
-    <t>燃气调压间</t>
-  </si>
-  <si>
-    <t>暖通机房</t>
-  </si>
-  <si>
-    <t>空调机房</t>
-  </si>
-  <si>
-    <t>通风机房</t>
-  </si>
-  <si>
-    <t>换热机房</t>
-  </si>
-  <si>
-    <t>制冷机房</t>
-  </si>
-  <si>
-    <t>锅炉间</t>
-  </si>
-  <si>
-    <t>独立锅炉房</t>
-  </si>
-  <si>
-    <t>非独立锅炉房</t>
-  </si>
-  <si>
-    <t>燃煤锅炉间</t>
-  </si>
-  <si>
-    <t>燃煤锅炉房</t>
-  </si>
-  <si>
-    <t>燃油锅炉间</t>
-  </si>
-  <si>
-    <t>燃油锅炉房</t>
-  </si>
-  <si>
-    <t>燃气锅炉间</t>
-  </si>
-  <si>
-    <t>燃气锅炉房</t>
-  </si>
-  <si>
-    <t>垃圾间</t>
-  </si>
-  <si>
-    <t>独立垃圾收集存储间</t>
-  </si>
-  <si>
-    <t>公共厨房垃圾间</t>
-  </si>
-  <si>
-    <t>城镇生活垃圾房</t>
-  </si>
-  <si>
-    <t>分类生活垃圾房</t>
-  </si>
-  <si>
-    <t>城镇生活垃圾屋</t>
-  </si>
-  <si>
-    <t>干湿集中垃圾间</t>
-  </si>
-  <si>
-    <t>分类生活垃圾屋</t>
-  </si>
-  <si>
-    <t>集中干垃圾间</t>
-  </si>
-  <si>
-    <t>集中湿垃圾间</t>
-  </si>
-  <si>
-    <t>无障碍服务场所</t>
-  </si>
-  <si>
-    <t>少年儿童专用活动场所</t>
-  </si>
-  <si>
-    <t>儿童活动设施，儿童用房</t>
-  </si>
-  <si>
-    <t>幼儿园的儿童用房</t>
-  </si>
-  <si>
-    <t>儿童游乐设施</t>
-  </si>
-  <si>
-    <t>儿童游乐厅</t>
-  </si>
-  <si>
-    <t>儿童游憩区</t>
-  </si>
-  <si>
-    <t>儿童专用厕所</t>
-  </si>
-  <si>
-    <t>老年人专用活动场所</t>
-  </si>
-  <si>
-    <t>老年人公共活动用房</t>
-  </si>
-  <si>
-    <t>康复与医疗用房</t>
-  </si>
-  <si>
-    <t>无障碍通道</t>
-  </si>
-  <si>
-    <t>室外无障碍通道</t>
-  </si>
-  <si>
-    <t>室内无障碍通道</t>
-  </si>
-  <si>
-    <t>无障碍电梯前室</t>
-  </si>
-  <si>
-    <t>无障碍电梯的候梯厅</t>
-  </si>
-  <si>
-    <t>无障碍盆浴间</t>
-  </si>
-  <si>
-    <t>无障碍淋浴间</t>
-  </si>
-  <si>
-    <t>无障碍居室</t>
-  </si>
-  <si>
-    <t>无障碍客房</t>
-  </si>
-  <si>
-    <t>无障碍厨房</t>
-  </si>
-  <si>
-    <t>无障碍卫生间</t>
-  </si>
-  <si>
-    <t>无障碍落客区</t>
-  </si>
-  <si>
-    <t>安防监控中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防控制室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变电室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间内是否布置电子巡更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电气机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子设备间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防排烟机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间外是否需要布置电子巡更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-枪式摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-人脸识别摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-半球摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-枪式摄像机（带室内防护罩）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-人脸识别摄像机（翻转）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-半球摄像机（翻转）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口控制-枪式摄像机（带室内防护罩）（翻转）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户大堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配电室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发电机间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖通机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅炉间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无障碍卫生间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入侵报警-残卫报警</t>
-  </si>
-  <si>
-    <t>入侵报警-紧急报警</t>
-  </si>
-  <si>
-    <t>入侵报警-紧急报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安防监控中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明</t>
-  </si>
-  <si>
-    <t>滑雪，雪场</t>
-  </si>
-  <si>
-    <t>滑雪场</t>
-  </si>
-  <si>
-    <t>溜冰，冰场</t>
-  </si>
-  <si>
-    <t>溜冰场</t>
-  </si>
-  <si>
-    <t>游泳，泳池</t>
-  </si>
-  <si>
-    <t>游泳池</t>
-  </si>
-  <si>
-    <t>涉水运动场所</t>
-  </si>
-  <si>
-    <t>体育建筑</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；正常照明</t>
-  </si>
-  <si>
-    <t>化妆室</t>
-  </si>
-  <si>
-    <t>排演厅</t>
-  </si>
-  <si>
-    <t>音乐厅</t>
-  </si>
-  <si>
-    <t>剧场</t>
-  </si>
-  <si>
-    <t>公共区域</t>
-  </si>
-  <si>
-    <t>剧院</t>
-  </si>
-  <si>
-    <t>影院售卖区</t>
-  </si>
-  <si>
-    <t>*售票厅</t>
-  </si>
-  <si>
-    <t>放映室</t>
-  </si>
-  <si>
-    <t>*放映间，*放映机房，*放映室</t>
-  </si>
-  <si>
-    <t>放映设备间</t>
-  </si>
-  <si>
-    <t>VIP休息室</t>
-  </si>
-  <si>
-    <t>影院大堂</t>
-  </si>
-  <si>
-    <t>*影院大堂</t>
-  </si>
-  <si>
-    <t>观众休息厅</t>
-  </si>
-  <si>
-    <t>影院观众厅</t>
-  </si>
-  <si>
-    <t>*观众厅，*影厅</t>
-  </si>
-  <si>
-    <t>观众厅</t>
-  </si>
-  <si>
-    <t>电影院</t>
-  </si>
-  <si>
-    <t>观演建筑</t>
-  </si>
-  <si>
-    <t>早教</t>
-  </si>
-  <si>
-    <t>*早教，*培训</t>
-  </si>
-  <si>
-    <t>游戏厅</t>
-  </si>
-  <si>
-    <t>*游戏厅，*电玩室，*电玩</t>
-  </si>
-  <si>
-    <t>电玩游戏厅</t>
-  </si>
-  <si>
-    <t>健身房</t>
-  </si>
-  <si>
-    <t>*健身房，*健身区，*健身区域</t>
-  </si>
-  <si>
-    <t>健身</t>
-  </si>
-  <si>
-    <t>儿童游乐</t>
-  </si>
-  <si>
-    <t>*儿童娱乐</t>
-  </si>
-  <si>
-    <t>儿童攀爬游乐</t>
-  </si>
-  <si>
-    <t>冰场</t>
-  </si>
-  <si>
-    <t>母婴室</t>
-  </si>
-  <si>
-    <t>浴室</t>
-  </si>
-  <si>
-    <t>大堂</t>
-  </si>
-  <si>
-    <t>私有区域；感烟火灾探测器；疏散指示；疏散照明面积判断</t>
-  </si>
-  <si>
-    <t>营业厅</t>
-  </si>
-  <si>
-    <t>商铺</t>
-  </si>
-  <si>
-    <t>超市</t>
-  </si>
-  <si>
-    <t>*百货，商铺，*商业</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>西餐</t>
-  </si>
-  <si>
-    <t>*电餐，*西餐，*轻餐</t>
-  </si>
-  <si>
-    <t>无燃气餐饮</t>
-  </si>
-  <si>
-    <t>中餐</t>
-  </si>
-  <si>
-    <t>私有区域；感烟火灾探测器；可燃气体探测器；疏散指示；疏散照明面积判断</t>
-  </si>
-  <si>
-    <t>*中餐，*美食广场</t>
-  </si>
-  <si>
-    <t>燃气餐饮</t>
-  </si>
-  <si>
-    <t>*餐饮</t>
-  </si>
-  <si>
-    <t>餐饮</t>
-  </si>
-  <si>
-    <t>商店建筑</t>
-  </si>
-  <si>
-    <t>茶水间</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器</t>
-  </si>
-  <si>
-    <t>*开水间</t>
-  </si>
-  <si>
-    <t>*餐厅</t>
-  </si>
-  <si>
-    <t>餐厅</t>
-  </si>
-  <si>
-    <t>服务大厅</t>
-  </si>
-  <si>
-    <t>前台</t>
-  </si>
-  <si>
-    <t>会议室</t>
-  </si>
-  <si>
-    <t>接待室</t>
-  </si>
-  <si>
-    <t>多功能厅</t>
-  </si>
-  <si>
-    <t>商务会客室</t>
-  </si>
-  <si>
-    <t>视频会议室</t>
-  </si>
-  <si>
-    <t>办公室</t>
-  </si>
-  <si>
-    <t>发行室</t>
-  </si>
-  <si>
-    <t>文件整理室</t>
-  </si>
-  <si>
-    <t>复印</t>
-  </si>
-  <si>
-    <t>复印室</t>
-  </si>
-  <si>
-    <t>储藏间</t>
-  </si>
-  <si>
-    <t>档案</t>
-  </si>
-  <si>
-    <t>档案室</t>
-  </si>
-  <si>
-    <t>设计室</t>
-  </si>
-  <si>
-    <t>高档办公室</t>
-  </si>
-  <si>
-    <t>*办公</t>
-  </si>
-  <si>
-    <t>普通办公室</t>
-  </si>
-  <si>
-    <t>办公建筑</t>
-  </si>
-  <si>
-    <t>私有区域；感烟火灾探测器</t>
-  </si>
-  <si>
-    <t>*公寓*</t>
-  </si>
-  <si>
-    <t>公寓</t>
-  </si>
-  <si>
-    <t>私有区域</t>
-  </si>
-  <si>
-    <t>玄关</t>
-  </si>
-  <si>
-    <t>过道</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>书房</t>
-  </si>
-  <si>
-    <t>卧室</t>
-  </si>
-  <si>
-    <t>客厅</t>
-  </si>
-  <si>
-    <t>起居室</t>
-  </si>
-  <si>
-    <t>私有区域；不可布置广播</t>
-  </si>
-  <si>
-    <t>居住套型</t>
-  </si>
-  <si>
-    <t>居住建筑</t>
-  </si>
-  <si>
-    <t>*无障碍厕所，*无障碍卫生间</t>
-  </si>
-  <si>
-    <t>无障碍卧室</t>
-  </si>
-  <si>
-    <t>私有区域；感烟火灾探测器；正常照明；不可布置广播</t>
-  </si>
-  <si>
-    <t>无障碍套型，无障碍户型，无障碍房型</t>
-  </si>
-  <si>
-    <t>无障碍套型</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；正常照明；必须布置广播</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；正常照明</t>
-  </si>
-  <si>
-    <t>轮椅回转空间</t>
-  </si>
-  <si>
-    <t>轮椅通道，*无障碍通道</t>
-  </si>
-  <si>
-    <t>无障碍设施</t>
-  </si>
-  <si>
-    <t>非机动车库</t>
-  </si>
-  <si>
-    <t>自行车坡道</t>
-  </si>
-  <si>
-    <t>非机动车坡道</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；车位照明；车道照明</t>
-  </si>
-  <si>
-    <t>非机动车库充电区域</t>
-  </si>
-  <si>
-    <t>非机动车库非充电车区域</t>
-  </si>
-  <si>
-    <t>自行车库</t>
-  </si>
-  <si>
-    <t>坡道*，汽车坡道*</t>
-  </si>
-  <si>
-    <t>汽车坡道</t>
-  </si>
-  <si>
-    <t>机动车库</t>
-  </si>
-  <si>
-    <t>地下车库</t>
-  </si>
-  <si>
-    <t>停车库，车库，I类汽车库，II类汽车库，机动车库</t>
-  </si>
-  <si>
-    <t>汽车库</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域</t>
-  </si>
-  <si>
-    <t>非机动车停车场</t>
-  </si>
-  <si>
-    <t>机动车停车场</t>
-  </si>
-  <si>
-    <t>停车场</t>
-  </si>
-  <si>
-    <t>停车设施</t>
-  </si>
-  <si>
-    <t>有害垃圾间，有害垃圾</t>
-  </si>
-  <si>
-    <t>集中有害垃圾间</t>
-  </si>
-  <si>
-    <t>可回收物垃圾间，可回收物</t>
-  </si>
-  <si>
-    <t>集中可回收物垃圾间</t>
-  </si>
-  <si>
-    <t>湿垃圾间，湿垃圾</t>
-  </si>
-  <si>
-    <t>干垃圾间，干垃圾</t>
-  </si>
-  <si>
-    <t>生活垃圾</t>
-  </si>
-  <si>
-    <t>厨余垃圾间，厨余垃圾</t>
-  </si>
-  <si>
-    <t>湿垃圾房</t>
-  </si>
-  <si>
-    <t>*湿垃圾</t>
-  </si>
-  <si>
-    <t>干垃圾房</t>
-  </si>
-  <si>
-    <t>*干垃圾</t>
-  </si>
-  <si>
-    <t>垃圾房</t>
-  </si>
-  <si>
-    <t>公共区域；感温火灾探测器；正常照明</t>
-  </si>
-  <si>
-    <t>*热水机房</t>
-  </si>
-  <si>
-    <t>热水机房</t>
-  </si>
-  <si>
-    <t>公共区域；可燃气体探测器；正常照明；防爆</t>
-  </si>
-  <si>
-    <t>锅炉房</t>
-  </si>
-  <si>
-    <t>*锅炉房，燃烧设备间</t>
-  </si>
-  <si>
-    <t>*冷冻机房，*制冷机房</t>
-  </si>
-  <si>
-    <t>热力小室，热力入口间</t>
-  </si>
-  <si>
-    <t>热交换间</t>
-  </si>
-  <si>
-    <t>*换热站，*热交换间，*热交换</t>
-  </si>
-  <si>
-    <t>*补风机房，*送风兼补风机房，*补风兼送风机房</t>
-  </si>
-  <si>
-    <t>补风机房</t>
-  </si>
-  <si>
-    <t>*消防排烟机房，*排烟兼排风机房，*排风兼排烟机房，*排烟机房</t>
-  </si>
-  <si>
-    <t>排烟机房</t>
-  </si>
-  <si>
-    <t>*正压送风机房，*加压机房，*正压机房，*加压补风机房</t>
-  </si>
-  <si>
-    <t>加压送风机房</t>
-  </si>
-  <si>
-    <t>*防排烟风机，*消防风机房</t>
-  </si>
-  <si>
-    <t>防排烟机房</t>
-  </si>
-  <si>
-    <t>*送风机房，*排风机房，*通风机房</t>
-  </si>
-  <si>
-    <t>*空调机房，*新风机房</t>
-  </si>
-  <si>
-    <t>燃气间</t>
-  </si>
-  <si>
-    <t>*调压间，*燃气表间，*燃气调压间</t>
-  </si>
-  <si>
-    <t>*调压站</t>
-  </si>
-  <si>
-    <t>公共区域；可燃气体探测器；防爆</t>
-  </si>
-  <si>
-    <t>设备间</t>
-  </si>
-  <si>
-    <t>清水泵房</t>
-  </si>
-  <si>
-    <t>报警阀间</t>
-  </si>
-  <si>
-    <t>污水提升间</t>
-  </si>
-  <si>
-    <t>污水提升泵房，*提升泵房，污水提升间，污水处理间，*污水*</t>
-  </si>
-  <si>
-    <t>污水提升机房</t>
-  </si>
-  <si>
-    <t>隔油处理间</t>
-  </si>
-  <si>
-    <t>*隔油间，*隔油池间，*隔油处理间</t>
-  </si>
-  <si>
-    <t>隔油机房</t>
-  </si>
-  <si>
-    <t>*雨水回收机房，*雨水回用机房，*雨水机房，*雨水回收间</t>
-  </si>
-  <si>
-    <t>雨水回收机房</t>
-  </si>
-  <si>
-    <t>生活转输泵房</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散照明；疏散指示；正常照明</t>
-  </si>
-  <si>
-    <t>消防转输泵房</t>
-  </si>
-  <si>
-    <t>*生活水泵房，*生活泵房</t>
-  </si>
-  <si>
-    <t>*消防水泵房，*消防泵房，*消防增压设备间</t>
-  </si>
-  <si>
-    <t>地下式井泵房，半地下式井泵房，冷却水泵房，空调水迸发，*泵房，*水泵房</t>
-  </si>
-  <si>
-    <t>*电梯机房，*客梯机房，*货梯机房</t>
-  </si>
-  <si>
-    <t>弱电机房</t>
-  </si>
-  <si>
-    <t>计算机房，数据机房</t>
-  </si>
-  <si>
-    <t>通讯机房，接入机房，移动进线机房，移动机房，电信接入机房，电信机房，联通接入机房，联通机房，电信间，电信房</t>
-  </si>
-  <si>
-    <t>卫星电视</t>
-  </si>
-  <si>
-    <t>网络机房，MDF机房</t>
-  </si>
-  <si>
-    <t>电子信息设备用房</t>
-  </si>
-  <si>
-    <t>电子设备间</t>
-  </si>
-  <si>
-    <t>配电间</t>
-  </si>
-  <si>
-    <t>变配电所</t>
-  </si>
-  <si>
-    <t>*变电所*，*变配电所*，*变电站*，*变配电站*，*配电站*，*配电房*，*KT站，*K站，*PT站，*P站，*开关站，*开闭所，*公变，*专变，*自维变，*局维变</t>
-  </si>
-  <si>
-    <t>柴油发电机房</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；感温火灾探测器；疏散照明；疏散指示；正常照明</t>
-  </si>
-  <si>
-    <t>*柴油电站，*柴发机房，*柴油发电机房</t>
-  </si>
-  <si>
-    <t>*变压器室</t>
-  </si>
-  <si>
-    <t>高压配电间</t>
-  </si>
-  <si>
-    <t>低压配电间</t>
-  </si>
-  <si>
-    <t>地库配电间</t>
-  </si>
-  <si>
-    <t>电气机房</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；正常照明；不可布置广播</t>
-  </si>
-  <si>
-    <t>其它设备房间，设备用房，设备间，设备间室，设备房间，机房，其他设备间，其他机房，设备集中房间</t>
-  </si>
-  <si>
-    <t>设备机房</t>
-  </si>
-  <si>
-    <t>办公</t>
-  </si>
-  <si>
-    <t>锅炉房值班室</t>
-  </si>
-  <si>
-    <t>锅炉房控制室</t>
-  </si>
-  <si>
-    <t>制冷机房值班室，冷冻机房控制室，冷冻机房值班室</t>
-  </si>
-  <si>
-    <t>制冷机房控制室</t>
-  </si>
-  <si>
-    <t>消防水泵值班室</t>
-  </si>
-  <si>
-    <t>设备控制室</t>
-  </si>
-  <si>
-    <t>电站值班室，变电所控制室，变电所值班室</t>
-  </si>
-  <si>
-    <t>消防控制中心，消控安保监控中心，消控室兼安保监控中心，消控安保中心，消控室兼安保中心，消控室兼安保控制室，消控安保控制室，消控安保监控室，消控室兼安保监控室</t>
-  </si>
-  <si>
-    <t>消防控制室</t>
-  </si>
-  <si>
-    <t>安保中心，安保控制室，消控安保监控中心，消控室兼安保监控中心，消控安保中心，消控室兼安保中心，消控室兼安保控制室，消控安保控制室，消控安保监控室，消控室兼安保监控室</t>
-  </si>
-  <si>
-    <t>安防监控中心</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域</t>
-  </si>
-  <si>
-    <t>雨水回收水池</t>
-  </si>
-  <si>
-    <t>景观水池</t>
-  </si>
-  <si>
-    <t>生活水池</t>
-  </si>
-  <si>
-    <t>消防水池</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域；不可布置广播</t>
-  </si>
-  <si>
-    <t>水池</t>
-  </si>
-  <si>
-    <t>消防水箱间</t>
-  </si>
-  <si>
-    <t>生活水箱间</t>
-  </si>
-  <si>
-    <t>屋顶水箱间</t>
-  </si>
-  <si>
-    <t>气体灭火钢瓶间</t>
-  </si>
-  <si>
-    <t>气瓶专用房间</t>
-  </si>
-  <si>
-    <t>*储藏室，*工具间</t>
-  </si>
-  <si>
-    <t>储物间</t>
-  </si>
-  <si>
-    <t>油箱间</t>
-  </si>
-  <si>
-    <t>贮藏间，储藏等基本功能空间，储藏空间，储藏</t>
-  </si>
-  <si>
-    <t>排烟井，补风井，加压送风井，正压送风井，加压风井，正压风井，*补风，*排烟，*正压，*加压</t>
-  </si>
-  <si>
-    <t>防排烟井</t>
-  </si>
-  <si>
-    <t>送风井，排风井，排油烟井，烟井，*风口，*送风</t>
-  </si>
-  <si>
-    <t>通风井</t>
-  </si>
-  <si>
-    <t>新风井，新风</t>
-  </si>
-  <si>
-    <t>空调风井</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；电井照明；不可布置广播</t>
-  </si>
-  <si>
-    <t>*弱电间，弱电，电井，*弱电井</t>
-  </si>
-  <si>
-    <t>弱电井</t>
-  </si>
-  <si>
-    <t>*强电间，强电，电井，*强电井</t>
-  </si>
-  <si>
-    <t>强电井</t>
-  </si>
-  <si>
-    <t>空调水井，冷媒井，空调水管井，空调水管，空调水，冷却水井，冷却水</t>
-  </si>
-  <si>
-    <t>空调管井</t>
-  </si>
-  <si>
-    <t>公共区域；可燃气体探测器；燃气井照明；防爆；不可布置广播</t>
-  </si>
-  <si>
-    <t>燃气井，煤气井，天然气井，天然气，煤气</t>
-  </si>
-  <si>
-    <t>燃气管井</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域；水井照明；不可布置广播</t>
-  </si>
-  <si>
-    <t>水井，水，给水，排水</t>
-  </si>
-  <si>
-    <t>水管井</t>
-  </si>
-  <si>
-    <t>固定窗井</t>
-  </si>
-  <si>
-    <t>采光天井，天井</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域；电梯井道照明；不可布置广播</t>
-  </si>
-  <si>
-    <t>观光梯</t>
-  </si>
-  <si>
-    <t>观光电梯</t>
-  </si>
-  <si>
-    <t>食梯</t>
-  </si>
-  <si>
-    <t>餐梯</t>
-  </si>
-  <si>
-    <t>担架电梯兼货梯</t>
-  </si>
-  <si>
-    <t>担架电梯兼消防电梯</t>
-  </si>
-  <si>
-    <t>无障碍电梯兼消防电梯</t>
-  </si>
-  <si>
-    <t>消防电梯兼担架电梯</t>
-  </si>
-  <si>
-    <t>消防电梯兼无障碍电梯</t>
-  </si>
-  <si>
-    <t>担架电梯</t>
-  </si>
-  <si>
-    <t>载货电梯，载货梯，HT*</t>
-  </si>
-  <si>
-    <t>货梯</t>
-  </si>
-  <si>
-    <t>无障碍梯，*无障碍电梯*</t>
-  </si>
-  <si>
-    <t>无障碍电梯</t>
-  </si>
-  <si>
-    <t>*客梯*</t>
-  </si>
-  <si>
-    <t>客梯</t>
-  </si>
-  <si>
-    <t>*消防电梯*</t>
-  </si>
-  <si>
-    <t>消防电梯</t>
-  </si>
-  <si>
-    <t>*电梯，*DT*，*电梯井</t>
-  </si>
-  <si>
-    <t>电梯井道</t>
-  </si>
-  <si>
-    <t>井道</t>
-  </si>
-  <si>
-    <t>清洁间</t>
-  </si>
-  <si>
-    <t>拖把间</t>
-  </si>
-  <si>
-    <t>拖把池间</t>
-  </si>
-  <si>
-    <t>*清洁间</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>*女厕，*女卫生间</t>
-  </si>
-  <si>
-    <t>女卫</t>
-  </si>
-  <si>
-    <t>*男厕，*男卫生间</t>
-  </si>
-  <si>
-    <t>男卫</t>
-  </si>
-  <si>
-    <t>公共厕所，公厕，卫生间</t>
-  </si>
-  <si>
-    <t>公共卫生间</t>
-  </si>
-  <si>
-    <t>中庭</t>
-  </si>
-  <si>
-    <t>检修走道</t>
-  </si>
-  <si>
-    <t>防毒通道和密闭通道，密闭通道</t>
-  </si>
-  <si>
-    <t>客梯厅</t>
-  </si>
-  <si>
-    <t>货梯厅</t>
-  </si>
-  <si>
-    <t>电梯厅</t>
-  </si>
-  <si>
-    <t>公共走廊</t>
-  </si>
-  <si>
-    <t>公共走道</t>
-  </si>
-  <si>
-    <t>后勤走道</t>
-  </si>
-  <si>
-    <t>走道</t>
-  </si>
-  <si>
-    <t>楼层走道间，室内回廊，室内走道，*走廊</t>
-  </si>
-  <si>
-    <t>共用前室，*合用前室*</t>
-  </si>
-  <si>
-    <t>合用前室</t>
-  </si>
-  <si>
-    <t>*电梯前室*</t>
-  </si>
-  <si>
-    <t>电梯前室</t>
-  </si>
-  <si>
-    <t>消防前室，*消防电梯前室*</t>
-  </si>
-  <si>
-    <t>消防电梯前室</t>
-  </si>
-  <si>
-    <t>防烟楼梯间前室，*防烟前室*</t>
-  </si>
-  <si>
-    <t>防烟前室</t>
-  </si>
-  <si>
-    <t>扩大合用前室，*扩大前室*</t>
-  </si>
-  <si>
-    <t>扩大前室</t>
-  </si>
-  <si>
-    <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
-  </si>
-  <si>
-    <t>楼梯间前室，封闭前室，*前室*</t>
-  </si>
-  <si>
-    <t>前室</t>
-  </si>
-  <si>
-    <t>人防楼梯间</t>
-  </si>
-  <si>
-    <t>地上防烟楼梯间，地下防烟楼梯间</t>
-  </si>
-  <si>
-    <t>防烟楼梯间</t>
-  </si>
-  <si>
-    <t>地上封闭楼梯间，地下封闭楼梯间</t>
-  </si>
-  <si>
-    <t>封闭楼梯间</t>
-  </si>
-  <si>
-    <t>开敞楼梯间</t>
-  </si>
-  <si>
-    <t>*LT*，BT*，BLT*，疏散楼梯间，*楼梯间</t>
-  </si>
-  <si>
-    <t>楼梯间</t>
-  </si>
-  <si>
-    <t>公共场所</t>
-  </si>
-  <si>
-    <t>私有区域；非火灾探测区域</t>
-  </si>
-  <si>
-    <t>*阳台</t>
-  </si>
-  <si>
-    <t>阳台</t>
-  </si>
-  <si>
-    <t>*天井</t>
-  </si>
-  <si>
-    <t>天井</t>
-  </si>
-  <si>
-    <t>门斗</t>
-  </si>
-  <si>
-    <t>不上人屋面</t>
-  </si>
-  <si>
-    <t>上人屋面</t>
-  </si>
-  <si>
-    <t>屋面，裙房屋面，塔楼屋面，*屋面</t>
-  </si>
-  <si>
-    <t>屋顶</t>
-  </si>
-  <si>
-    <t>*下沉广场，*下沉庭院</t>
-  </si>
-  <si>
     <t>下沉广场</t>
-  </si>
-  <si>
-    <t>台阶</t>
-  </si>
-  <si>
-    <t>室外台阶</t>
-  </si>
-  <si>
-    <t>花池</t>
-  </si>
-  <si>
-    <t>花坛</t>
-  </si>
-  <si>
-    <t>水景</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>绿化</t>
-  </si>
-  <si>
-    <t>公共区域；非火灾探测区域；疏散指示</t>
-  </si>
-  <si>
-    <t>*室外楼梯</t>
-  </si>
-  <si>
-    <t>室外楼梯</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示</t>
-  </si>
-  <si>
-    <t>*天桥</t>
-  </si>
-  <si>
-    <t>天桥</t>
-  </si>
-  <si>
-    <t>*停机坪</t>
-  </si>
-  <si>
-    <t>直升飞机停机坪</t>
-  </si>
-  <si>
-    <t>室外机平台</t>
-  </si>
-  <si>
-    <t>设备平台</t>
-  </si>
-  <si>
-    <t>不上人平台</t>
-  </si>
-  <si>
-    <t>上人平台</t>
-  </si>
-  <si>
-    <t>室外平台</t>
-  </si>
-  <si>
-    <t>室外走道</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域；疏散指示；疏散照明</t>
-  </si>
-  <si>
-    <t>*外廊，*连廊</t>
-  </si>
-  <si>
-    <t>室外连廊</t>
-  </si>
-  <si>
-    <t>外廊</t>
-  </si>
-  <si>
-    <t>室外</t>
-  </si>
-  <si>
-    <t>室外区域</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>暖通房间功能标签</t>
-  </si>
-  <si>
-    <t>疏散照明设置判据</t>
-  </si>
-  <si>
-    <t>LPD</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>同义词（逗号分隔）</t>
-  </si>
-  <si>
-    <t>四级</t>
-  </si>
-  <si>
-    <t>三级</t>
-  </si>
-  <si>
-    <t>二级</t>
-  </si>
-  <si>
-    <t>一级</t>
-  </si>
-  <si>
-    <t>*大堂，*门厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水处理房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,6 +2099,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2381,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
@@ -2423,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -2434,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2451,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2468,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2485,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2518,8 +2521,8 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
+      <c r="B8" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -2536,7 +2539,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2553,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>577</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -2567,10 +2570,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -2584,10 +2587,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -2601,10 +2604,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2618,10 +2621,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2635,16 +2638,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
@@ -2652,16 +2655,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>618</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -2669,16 +2672,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -2686,16 +2689,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
@@ -2703,13 +2706,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -2720,13 +2723,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -2737,13 +2740,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -2754,13 +2757,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -2771,13 +2774,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -2788,18 +2791,35 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2809,18 +2829,18 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>配置模式!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E24</xm:sqref>
+          <xm:sqref>E2:E25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>配置模式!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D24</xm:sqref>
+          <xm:sqref>D2:D25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2880,7 +2900,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2897,10 +2917,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2914,7 +2934,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2931,7 +2951,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2948,10 +2968,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2965,7 +2985,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2982,7 +3002,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2999,7 +3019,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3016,7 +3036,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3033,7 +3053,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3050,7 +3070,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -3067,7 +3087,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -3084,7 +3104,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -3093,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -3101,7 +3121,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -3110,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -3142,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3197,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3194,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -3211,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3228,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>620</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3242,10 +3262,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3259,10 +3279,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -3276,10 +3296,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3293,10 +3313,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -3310,13 +3330,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -3327,13 +3347,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>619</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -3344,13 +3364,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -3361,16 +3381,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -3378,13 +3398,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -3395,18 +3415,35 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3420,7 +3457,7 @@
           <x14:formula1>
             <xm:f>配置模式!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E15</xm:sqref>
+          <xm:sqref>D2:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3433,7 +3470,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3445,240 +3482,240 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3730,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3716,7 +3753,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3727,7 +3764,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -3738,7 +3775,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3749,7 +3786,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -3760,23 +3797,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3784,7 +3821,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3824,8 +3861,8 @@
   <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3843,75 +3880,75 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3919,2790 +3956,2790 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D7" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="12" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D33" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D34" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D35" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D36" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D38" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D41" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D42" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C49" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F49" s="6"/>
       <c r="I49" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D50" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D51" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D52" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D53" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C55" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D56" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D57" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D58" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D59" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D60" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D61" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D62" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D63" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D64" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D65" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D66" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D67" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C68" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C69" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C70" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D71" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D72" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D73" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D74" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D75" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C76" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D77" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D78" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D79" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F80" s="6"/>
       <c r="I80" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D82" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D83" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D84" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D85" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D87" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D91" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C95" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C96" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C97" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C98" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C99" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C100" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D101" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C102" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D103" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D104" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C105" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D106" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D107" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D108" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D109" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C111" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C112" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C113" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C115" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C116" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C118" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C119" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="57" x14ac:dyDescent="0.2">
       <c r="D120" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C121" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C122" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="57" x14ac:dyDescent="0.2">
       <c r="C123" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C124" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D126" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D127" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D128" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C131" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C132" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D133" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D134" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C135" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D136" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C137" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D138" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C139" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C140" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C141" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C143" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C144" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C145" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C146" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C147" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C148" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C154" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D155" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D156" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D157" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D158" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D159" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C160" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D161" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D162" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D163" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D164" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C165" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C166" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C167" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C168" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F168" s="6"/>
       <c r="I168" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C170" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C171" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C172" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C173" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C174" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C175" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C176" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D177" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D178" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D179" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C180" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D181" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C182" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F182" s="6"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C184" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C185" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C186" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C187" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C188" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C189" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C190" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C192" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C193" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C194" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C195" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C197" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C198" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C199" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D200" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D201" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D202" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C203" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C204" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F204" s="6"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C205" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D207" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D208" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C209" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C210" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C211" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C214" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F214" s="6"/>
       <c r="I214" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C215" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F215" s="6"/>
       <c r="I215" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C216" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C217" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C218" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C219" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C220" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D221" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D222" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D223" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D224" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F225" s="6"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C227" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C228" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B229" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C230" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C231" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C233" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C234" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C235" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F236" s="6"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B237" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C238" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C239" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C240" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C241" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C243" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C244" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C246" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D247" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D248" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D249" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C250" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C251" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C252" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D253" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D254" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D255" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D256" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D257" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D258" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C261" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C262" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C263" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C264" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C265" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C266" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C267" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B269" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C270" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H270" s="4">
         <v>400</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C271" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H271" s="4">
         <v>400</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C272" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H272" s="4">
         <v>400</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C273" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H273" s="4">
         <v>400</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C274" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H274" s="4">
         <v>400</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C275" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H275" s="4">
         <v>400</v>
@@ -6710,464 +6747,464 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C276" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H276" s="4">
         <v>400</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H278" s="4">
         <v>400</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C279" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H279" s="4">
         <v>400</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F280" s="6"/>
       <c r="I280" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C281" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F281" s="6"/>
       <c r="I281" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B282" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B283" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B284" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B285" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F285" s="6"/>
       <c r="I285" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B288" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H288" s="4">
         <v>200</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C289" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H289" s="4">
         <v>200</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C290" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H290" s="4">
         <v>200</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B291" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H291" s="4">
         <v>200</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B292" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H292" s="4">
         <v>200</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B293" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H293" s="4">
         <v>200</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F294" s="6"/>
       <c r="I294" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B295" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F295" s="6"/>
       <c r="I295" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B296" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F296" s="6"/>
       <c r="I296" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B297" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F297" s="6"/>
       <c r="I297" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F298" s="6"/>
       <c r="I298" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B299" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F299" s="6"/>
       <c r="I299" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B300" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F300" s="6"/>
       <c r="I300" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F301" s="6"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B302" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C303" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C304" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C305" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F305" s="6"/>
       <c r="I305" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C306" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C307" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F307" s="6"/>
       <c r="I307" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C309" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C310" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C311" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C312" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F313" s="6"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B314" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F314" s="6"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C315" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C316" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C317" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
